--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3CE736-3B9C-4709-AC0B-B9A627248504}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D337E084-1A15-40FE-BE82-AA53C9366D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,24 +422,60 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
     </row>
@@ -447,16 +483,46 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -479,15 +545,36 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D337E084-1A15-40FE-BE82-AA53C9366D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380B47E3-C9A9-4562-BEB7-DC47989FFF4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>№1</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>Владимир Шекуров</t>
+  </si>
+  <si>
+    <t>№5</t>
+  </si>
+  <si>
+    <t>№6</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>4(позже срока)</t>
+  </si>
+  <si>
+    <t>4(Не увидел 4 задачи. Можно исправить)</t>
+  </si>
+  <si>
+    <t>5 (если возвращает список, то пишется не [], а list</t>
+  </si>
+  <si>
+    <t>4 (жду 4 задачу)</t>
   </si>
 </sst>
 </file>
@@ -393,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,7 +425,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -417,8 +438,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -428,8 +455,14 @@
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -446,7 +479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -456,8 +489,14 @@
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -467,8 +506,14 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -478,8 +523,14 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -492,8 +543,17 @@
       <c r="D7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -506,8 +566,14 @@
       <c r="D8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -523,8 +589,14 @@
       <c r="E9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -540,19 +612,31 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -565,8 +649,14 @@
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -575,6 +665,12 @@
       </c>
       <c r="C13">
         <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380B47E3-C9A9-4562-BEB7-DC47989FFF4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478FCA46-C32A-42EE-BAFF-DB3D3D2A0CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>№1</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>4 (жду 4 задачу)</t>
+  </si>
+  <si>
+    <t>№7</t>
+  </si>
+  <si>
+    <t>№8</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,7 +431,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -444,8 +450,14 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -461,8 +473,14 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -478,8 +496,14 @@
       <c r="E3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -495,8 +519,14 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -512,8 +542,14 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -526,11 +562,17 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -552,8 +594,14 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -572,8 +620,11 @@
       <c r="F8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -596,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -618,8 +669,14 @@
       <c r="G10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -635,8 +692,14 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -655,8 +718,14 @@
       <c r="F12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -670,6 +739,12 @@
         <v>5</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>0</v>
       </c>
     </row>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478FCA46-C32A-42EE-BAFF-DB3D3D2A0CD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269A676-1472-46C5-88C6-DF5433D8DE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>№1</t>
   </si>
@@ -103,16 +103,53 @@
   </si>
   <si>
     <t>№8</t>
+  </si>
+  <si>
+    <t>№9</t>
+  </si>
+  <si>
+    <t>№10</t>
+  </si>
+  <si>
+    <t>№11</t>
+  </si>
+  <si>
+    <t>№12</t>
+  </si>
+  <si>
+    <t>№13</t>
+  </si>
+  <si>
+    <t>№14</t>
+  </si>
+  <si>
+    <t>4 my_range(1, 5, 0) например работает некоректно. Возможно, что-то еще работает неправильно</t>
+  </si>
+  <si>
+    <t>4(too late)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,8 +175,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -420,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,7 +469,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +494,26 @@
       <c r="I1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -479,8 +535,14 @@
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -502,9 +564,15 @@
       <c r="G3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -525,8 +593,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -548,8 +622,14 @@
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -571,8 +651,20 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -601,7 +693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -623,8 +715,14 @@
       <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -646,8 +744,14 @@
       <c r="G9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -676,7 +780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -689,17 +793,23 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -724,8 +834,14 @@
       <c r="H12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -744,7 +860,13 @@
       <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
@@ -752,6 +874,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
     <sortCondition ref="A2:A13"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3269A676-1472-46C5-88C6-DF5433D8DE55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A96A4B-4A4A-476D-A5E1-5DDFFC316852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>№1</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>4(too late)</t>
+  </si>
+  <si>
+    <t>4(late)</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,6 +544,12 @@
       <c r="I2">
         <v>5</v>
       </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -570,6 +579,12 @@
       <c r="I3">
         <v>5</v>
       </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -584,8 +599,8 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>34</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -597,6 +612,12 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
@@ -622,10 +643,16 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
@@ -661,6 +688,9 @@
         <v>32</v>
       </c>
       <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
     </row>
@@ -692,6 +722,15 @@
       <c r="I7">
         <v>5</v>
       </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -718,7 +757,13 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0</v>
       </c>
     </row>
@@ -750,6 +795,12 @@
       <c r="I9">
         <v>5</v>
       </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -802,10 +853,16 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>0</v>
       </c>
     </row>
@@ -840,6 +897,9 @@
       <c r="J12">
         <v>5</v>
       </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -863,10 +923,16 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>0</v>
       </c>
     </row>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A96A4B-4A4A-476D-A5E1-5DDFFC316852}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF906759-B270-4D8E-AF94-8336589D869F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>№1</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>4(late)</t>
+  </si>
+  <si>
+    <t>5 ( можно также брать openaweather api)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,6 +553,12 @@
       <c r="K2">
         <v>5</v>
       </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -585,6 +594,12 @@
       <c r="K3">
         <v>5</v>
       </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -620,6 +635,12 @@
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -649,10 +670,16 @@
       <c r="I5" t="s">
         <v>33</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
@@ -692,6 +719,9 @@
       </c>
       <c r="L6">
         <v>5</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -731,6 +761,9 @@
       <c r="L7">
         <v>5</v>
       </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -760,10 +793,16 @@
       <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
@@ -801,6 +840,15 @@
       <c r="K9">
         <v>5</v>
       </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -865,6 +913,12 @@
       <c r="K11">
         <v>0</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -900,6 +954,12 @@
       <c r="K12">
         <v>5</v>
       </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -933,6 +993,12 @@
         <v>0</v>
       </c>
       <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
     </row>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF906759-B270-4D8E-AF94-8336589D869F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C87F8-2DAC-46B9-9AAE-605AFC517C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>№1</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Зинин Вячеслав</t>
   </si>
   <si>
-    <t>Полубоярцев Максим</t>
-  </si>
-  <si>
-    <t>Н</t>
-  </si>
-  <si>
     <t>Владимир Шекуров</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>№6</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>4(позже срока)</t>
   </si>
   <si>
@@ -133,13 +124,16 @@
   </si>
   <si>
     <t>5 ( можно также брать openaweather api)</t>
+  </si>
+  <si>
+    <t>№15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +152,14 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,9 +183,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +478,7 @@
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -489,37 +492,40 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -559,8 +565,11 @@
       <c r="M2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -600,10 +609,13 @@
       <c r="M3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -612,13 +624,13 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -641,8 +653,11 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -665,25 +680,28 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -697,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -712,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -720,11 +738,14 @@
       <c r="L6">
         <v>5</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -762,10 +783,16 @@
         <v>5</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -791,22 +818,25 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -850,79 +880,97 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -934,79 +982,42 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+    <sortCondition ref="A2:A12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85C87F8-2DAC-46B9-9AAE-605AFC517C18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D10DD5-7218-4934-91C0-C0733CEBF28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>№1</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>№15</t>
+  </si>
+  <si>
+    <t>№16</t>
   </si>
 </sst>
 </file>
@@ -467,18 +470,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +528,11 @@
       <c r="P1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -568,8 +575,14 @@
       <c r="N2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -612,8 +625,14 @@
       <c r="N3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -656,8 +675,14 @@
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -700,8 +725,14 @@
       <c r="N5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -741,11 +772,17 @@
       <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -791,8 +828,11 @@
       <c r="O7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -835,8 +875,14 @@
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -879,8 +925,14 @@
       <c r="N9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -923,8 +975,14 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -967,8 +1025,14 @@
       <c r="N11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1009,6 +1073,12 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
     </row>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D10DD5-7218-4934-91C0-C0733CEBF28A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92815B-F5E9-4139-B4E3-7E1D3B351A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>№1</t>
   </si>
@@ -130,13 +130,22 @@
   </si>
   <si>
     <t>№16</t>
+  </si>
+  <si>
+    <t>№17</t>
+  </si>
+  <si>
+    <t>№18</t>
+  </si>
+  <si>
+    <t>№19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +174,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,10 +203,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -470,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,7 +500,7 @@
     <col min="16" max="16" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -531,9 +549,18 @@
       <c r="Q1" t="s">
         <v>34</v>
       </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -581,9 +608,15 @@
       <c r="P2">
         <v>5</v>
       </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -631,8 +664,14 @@
       <c r="P3">
         <v>5</v>
       </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -681,9 +720,15 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5">
@@ -731,8 +776,14 @@
       <c r="P5">
         <v>0</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -775,15 +826,21 @@
       <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="O6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -831,9 +888,15 @@
       <c r="P7">
         <v>5</v>
       </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8">
@@ -881,9 +944,15 @@
       <c r="P8">
         <v>0</v>
       </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9">
@@ -931,8 +1000,14 @@
       <c r="P9">
         <v>5</v>
       </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -972,18 +1047,24 @@
       <c r="M10" t="s">
         <v>31</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" t="s">
+        <v>31</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11">
@@ -1031,8 +1112,14 @@
       <c r="P11">
         <v>5</v>
       </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1079,6 +1166,12 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
     </row>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92815B-F5E9-4139-B4E3-7E1D3B351A1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12CA24E-75FC-489C-A6C8-98F3BE9BAD90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>№1</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Зинин Вячеслав</t>
   </si>
   <si>
-    <t>Владимир Шекуров</t>
-  </si>
-  <si>
     <t>№5</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>№19</t>
+  </si>
+  <si>
+    <t>Шекуров Владимир</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,49 +514,49 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
       <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
@@ -614,6 +614,12 @@
       <c r="R2">
         <v>5</v>
       </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -670,10 +676,16 @@
       <c r="R3">
         <v>5</v>
       </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
+      <c r="A4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -681,38 +693,38 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -724,12 +736,18 @@
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -740,8 +758,8 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>5</v>
+      <c r="E5" t="s">
+        <v>16</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -749,43 +767,49 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>30</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -796,8 +820,8 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
+      <c r="E6">
+        <v>5</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -806,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
-      <c r="J6" t="s">
-        <v>29</v>
+      <c r="J6">
+        <v>5</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -823,25 +847,31 @@
       <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" t="s">
-        <v>31</v>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+      <c r="A7" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -864,40 +894,46 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -920,152 +956,170 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
+      <c r="A9" t="s">
+        <v>4</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>5</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
-      </c>
-      <c r="R9">
-        <v>5</v>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" t="s">
-        <v>31</v>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1077,51 +1131,57 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -1129,23 +1189,23 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1172,11 +1232,17 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T12">
     <sortCondition ref="A2:A12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12CA24E-75FC-489C-A6C8-98F3BE9BAD90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F47B7-6898-4FB8-BC50-5C7D6968720C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>№1</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Шекуров Владимир</t>
+  </si>
+  <si>
+    <t>№20</t>
+  </si>
+  <si>
+    <t>№21</t>
+  </si>
+  <si>
+    <t>№22(2)</t>
+  </si>
+  <si>
+    <t>№22(1)</t>
   </si>
 </sst>
 </file>
@@ -488,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +512,7 @@
     <col min="16" max="16" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +570,20 @@
       <c r="T1" t="s">
         <v>36</v>
       </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -620,8 +644,14 @@
       <c r="T2">
         <v>5</v>
       </c>
+      <c r="U2">
+        <v>5</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -682,8 +712,14 @@
       <c r="T3">
         <v>5</v>
       </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -735,8 +771,8 @@
       <c r="Q4">
         <v>0</v>
       </c>
-      <c r="R4">
-        <v>0</v>
+      <c r="R4" t="s">
+        <v>30</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -744,8 +780,14 @@
       <c r="T4">
         <v>0</v>
       </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -794,8 +836,8 @@
       <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
+      <c r="Q5" t="s">
+        <v>30</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -806,8 +848,14 @@
       <c r="T5">
         <v>5</v>
       </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -868,8 +916,14 @@
       <c r="T6">
         <v>5</v>
       </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -930,8 +984,14 @@
       <c r="T7">
         <v>0</v>
       </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -992,8 +1052,14 @@
       <c r="T8">
         <v>5</v>
       </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1048,14 +1114,20 @@
       <c r="R9" t="s">
         <v>30</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
+      <c r="S9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1116,8 +1188,14 @@
       <c r="T10">
         <v>5</v>
       </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1178,8 +1256,14 @@
       <c r="T11">
         <v>0</v>
       </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1238,6 +1322,12 @@
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>0</v>
       </c>
     </row>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526F47B7-6898-4FB8-BC50-5C7D6968720C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B5303-54B5-41FF-9035-E194183A5F6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>№1</t>
   </si>
@@ -503,7 +503,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,8 +839,8 @@
       <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="R5">
-        <v>0</v>
+      <c r="R5" t="s">
+        <v>30</v>
       </c>
       <c r="S5">
         <v>5</v>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0B5303-54B5-41FF-9035-E194183A5F6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AEAF0-5D30-4282-9207-DB2E131F5944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t>№1</t>
   </si>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,7 +788,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -809,8 +809,8 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>0</v>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -853,6 +853,9 @@
       </c>
       <c r="V5">
         <v>5</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -922,6 +925,9 @@
       <c r="V6">
         <v>5</v>
       </c>
+      <c r="W6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -963,20 +969,20 @@
       <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>30</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1120,11 +1126,11 @@
       <c r="T9" t="s">
         <v>30</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -1288,11 +1294,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
       </c>
       <c r="K12">
         <v>0</v>

--- a/Results_P4.xlsx
+++ b/Results_P4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\courses\python_Boot_camp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667AEAF0-5D30-4282-9207-DB2E131F5944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB222DA-45E3-4D4C-A74D-43129442B4CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1200" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>№1</t>
   </si>
@@ -151,13 +151,25 @@
   </si>
   <si>
     <t>№22(1)</t>
+  </si>
+  <si>
+    <t>20/20</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>30/30</t>
+  </si>
+  <si>
+    <t>20/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,25 +185,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -215,11 +210,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,7 +577,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -649,10 +642,16 @@
       </c>
       <c r="V2">
         <v>5</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
@@ -720,7 +719,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
@@ -788,7 +787,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -854,12 +853,15 @@
       <c r="V5">
         <v>5</v>
       </c>
-      <c r="W5">
-        <v>20</v>
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -925,12 +927,15 @@
       <c r="V6">
         <v>5</v>
       </c>
-      <c r="W6">
-        <v>15</v>
+      <c r="W6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7">
@@ -998,7 +1003,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -1066,7 +1071,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9">
@@ -1134,7 +1139,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -1200,9 +1205,15 @@
       <c r="V10">
         <v>5</v>
       </c>
+      <c r="W10" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
@@ -1306,8 +1317,8 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
+      <c r="M12" t="s">
+        <v>30</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1324,8 +1335,8 @@
       <c r="R12">
         <v>0</v>
       </c>
-      <c r="S12">
-        <v>0</v>
+      <c r="S12" t="s">
+        <v>30</v>
       </c>
       <c r="T12">
         <v>0</v>
